--- a/public/template_user.xlsx
+++ b/public/template_user.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YEFTA\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PBL_Fastcili-TI\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0320029-77D4-46C5-9923-CCD2A487E5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0A8248-92A1-4107-AB3E-2BEECAD53E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{627A3C99-4863-4719-B148-124E320C6432}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="15375" windowHeight="7995" xr2:uid="{627A3C99-4863-4719-B148-124E320C6432}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>id_level</t>
   </si>
@@ -39,13 +39,34 @@
     <t>email</t>
   </si>
   <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>defta@gmail.com</t>
-  </si>
-  <si>
-    <t>Defta</t>
+    <t>yefta@gmail.com</t>
+  </si>
+  <si>
+    <t>Yeftaa</t>
+  </si>
+  <si>
+    <t>dwi@gmail.com</t>
+  </si>
+  <si>
+    <t>shamil@gmail.com</t>
+  </si>
+  <si>
+    <t>ody@gmail.com</t>
+  </si>
+  <si>
+    <t>ninis@gmail.com</t>
+  </si>
+  <si>
+    <t>Ninis</t>
+  </si>
+  <si>
+    <t>Rafi Ody</t>
+  </si>
+  <si>
+    <t>Shamil</t>
+  </si>
+  <si>
+    <t>Dwik</t>
   </si>
 </sst>
 </file>
@@ -104,10 +125,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -423,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA2B5ED-CC7C-455E-A0C5-5EAF441DA12A}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,24 +477,84 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{55C1B88C-5498-474A-BB46-F5C5C239DAE7}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{B8968899-E52C-47FB-BE2C-3D3465F565FC}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{AB562499-557A-43D7-B0DC-89F2720B37A0}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{EB2E474D-F692-4364-9681-C377BEE21E7E}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{1D9BA826-1D96-4859-B1B9-79E997251A73}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
 </worksheet>
 </file>